--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.96378582899791</v>
+        <v>0.3156923333333333</v>
       </c>
       <c r="H2">
-        <v>3.96378582899791</v>
+        <v>0.9470769999999999</v>
       </c>
       <c r="I2">
-        <v>0.8135810176646275</v>
+        <v>0.05856969468189592</v>
       </c>
       <c r="J2">
-        <v>0.8135810176646275</v>
+        <v>0.05856969468189593</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.57772146876226</v>
+        <v>5.243417666666667</v>
       </c>
       <c r="N2">
-        <v>4.57772146876226</v>
+        <v>15.730253</v>
       </c>
       <c r="O2">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974575</v>
       </c>
       <c r="P2">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974574</v>
       </c>
       <c r="Q2">
-        <v>18.14510748697934</v>
+        <v>1.655306757831222</v>
       </c>
       <c r="R2">
-        <v>18.14510748697934</v>
+        <v>14.897760820481</v>
       </c>
       <c r="S2">
-        <v>0.7552245245538335</v>
+        <v>0.04834341640242896</v>
       </c>
       <c r="T2">
-        <v>0.7552245245538335</v>
+        <v>0.04834341640242897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.96378582899791</v>
+        <v>0.3156923333333333</v>
       </c>
       <c r="H3">
-        <v>3.96378582899791</v>
+        <v>0.9470769999999999</v>
       </c>
       <c r="I3">
-        <v>0.8135810176646275</v>
+        <v>0.05856969468189592</v>
       </c>
       <c r="J3">
-        <v>0.8135810176646275</v>
+        <v>0.05856969468189593</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.353722320541402</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N3">
-        <v>0.353722320541402</v>
+        <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.07172794330711593</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="P3">
-        <v>0.07172794330711593</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="Q3">
-        <v>1.402079521562266</v>
+        <v>0.2144493811102222</v>
       </c>
       <c r="R3">
-        <v>1.402079521562266</v>
+        <v>1.930044429992</v>
       </c>
       <c r="S3">
-        <v>0.05835649311079409</v>
+        <v>0.006263017823861088</v>
       </c>
       <c r="T3">
-        <v>0.05835649311079409</v>
+        <v>0.00626301782386109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.908237660900981</v>
+        <v>0.3156923333333333</v>
       </c>
       <c r="H4">
-        <v>0.908237660900981</v>
+        <v>0.9470769999999999</v>
       </c>
       <c r="I4">
-        <v>0.1864189823353725</v>
+        <v>0.05856969468189592</v>
       </c>
       <c r="J4">
-        <v>0.1864189823353725</v>
+        <v>0.05856969468189593</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.57772146876226</v>
+        <v>0.4298626666666667</v>
       </c>
       <c r="N4">
-        <v>4.57772146876226</v>
+        <v>1.289588</v>
       </c>
       <c r="O4">
-        <v>0.9282720566928842</v>
+        <v>0.06766742557104236</v>
       </c>
       <c r="P4">
-        <v>0.9282720566928842</v>
+        <v>0.06766742557104236</v>
       </c>
       <c r="Q4">
-        <v>4.157659039044838</v>
+        <v>0.1357043482528889</v>
       </c>
       <c r="R4">
-        <v>4.157659039044838</v>
+        <v>1.221339134276</v>
       </c>
       <c r="S4">
-        <v>0.1730475321390506</v>
+        <v>0.003963260455605868</v>
       </c>
       <c r="T4">
-        <v>0.1730475321390506</v>
+        <v>0.003963260455605869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.044312666666666</v>
+      </c>
+      <c r="H5">
+        <v>12.132938</v>
+      </c>
+      <c r="I5">
+        <v>0.750332311157776</v>
+      </c>
+      <c r="J5">
+        <v>0.7503323111577761</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5.243417666666667</v>
+      </c>
+      <c r="N5">
+        <v>15.730253</v>
+      </c>
+      <c r="O5">
+        <v>0.8253998362974575</v>
+      </c>
+      <c r="P5">
+        <v>0.8253998362974574</v>
+      </c>
+      <c r="Q5">
+        <v>21.20602048592378</v>
+      </c>
+      <c r="R5">
+        <v>190.854184373314</v>
+      </c>
+      <c r="S5">
+        <v>0.6193241667983213</v>
+      </c>
+      <c r="T5">
+        <v>0.6193241667983213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.044312666666666</v>
+      </c>
+      <c r="H6">
+        <v>12.132938</v>
+      </c>
+      <c r="I6">
+        <v>0.750332311157776</v>
+      </c>
+      <c r="J6">
+        <v>0.7503323111577761</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.037896</v>
+      </c>
+      <c r="O6">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="P6">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="Q6">
+        <v>2.747296202049777</v>
+      </c>
+      <c r="R6">
+        <v>24.725665818448</v>
+      </c>
+      <c r="S6">
+        <v>0.08023508854063768</v>
+      </c>
+      <c r="T6">
+        <v>0.0802350885406377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.044312666666666</v>
+      </c>
+      <c r="H7">
+        <v>12.132938</v>
+      </c>
+      <c r="I7">
+        <v>0.750332311157776</v>
+      </c>
+      <c r="J7">
+        <v>0.7503323111577761</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.289588</v>
+      </c>
+      <c r="O7">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P7">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q7">
+        <v>1.738499027727111</v>
+      </c>
+      <c r="R7">
+        <v>15.646491249544</v>
+      </c>
+      <c r="S7">
+        <v>0.050773055818817</v>
+      </c>
+      <c r="T7">
+        <v>0.050773055818817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.070789</v>
+      </c>
+      <c r="H8">
+        <v>0.212367</v>
+      </c>
+      <c r="I8">
+        <v>0.01313332532677934</v>
+      </c>
+      <c r="J8">
+        <v>0.01313332532677934</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.243417666666667</v>
+      </c>
+      <c r="N8">
+        <v>15.730253</v>
+      </c>
+      <c r="O8">
+        <v>0.8253998362974575</v>
+      </c>
+      <c r="P8">
+        <v>0.8253998362974574</v>
+      </c>
+      <c r="Q8">
+        <v>0.3711762932056667</v>
+      </c>
+      <c r="R8">
+        <v>3.340586638851</v>
+      </c>
+      <c r="S8">
+        <v>0.01084024457476492</v>
+      </c>
+      <c r="T8">
+        <v>0.01084024457476492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.070789</v>
+      </c>
+      <c r="H9">
+        <v>0.212367</v>
+      </c>
+      <c r="I9">
+        <v>0.01313332532677934</v>
+      </c>
+      <c r="J9">
+        <v>0.01313332532677934</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.037896</v>
+      </c>
+      <c r="O9">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="P9">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="Q9">
+        <v>0.04808687331466666</v>
+      </c>
+      <c r="R9">
+        <v>0.432781859832</v>
+      </c>
+      <c r="S9">
+        <v>0.001404382437964292</v>
+      </c>
+      <c r="T9">
+        <v>0.001404382437964292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.070789</v>
+      </c>
+      <c r="H10">
+        <v>0.212367</v>
+      </c>
+      <c r="I10">
+        <v>0.01313332532677934</v>
+      </c>
+      <c r="J10">
+        <v>0.01313332532677934</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.289588</v>
+      </c>
+      <c r="O10">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P10">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q10">
+        <v>0.03042954831066667</v>
+      </c>
+      <c r="R10">
+        <v>0.273865934796</v>
+      </c>
+      <c r="S10">
+        <v>0.0008886983140501262</v>
+      </c>
+      <c r="T10">
+        <v>0.0008886983140501263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9592346666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.877704</v>
+      </c>
+      <c r="I11">
+        <v>0.1779646688335485</v>
+      </c>
+      <c r="J11">
+        <v>0.1779646688335486</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.243417666666667</v>
+      </c>
+      <c r="N11">
+        <v>15.730253</v>
+      </c>
+      <c r="O11">
+        <v>0.8253998362974575</v>
+      </c>
+      <c r="P11">
+        <v>0.8253998362974574</v>
+      </c>
+      <c r="Q11">
+        <v>5.029667997679112</v>
+      </c>
+      <c r="R11">
+        <v>45.267011979112</v>
+      </c>
+      <c r="S11">
+        <v>0.1468920085219422</v>
+      </c>
+      <c r="T11">
+        <v>0.1468920085219422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.908237660900981</v>
-      </c>
-      <c r="H5">
-        <v>0.908237660900981</v>
-      </c>
-      <c r="I5">
-        <v>0.1864189823353725</v>
-      </c>
-      <c r="J5">
-        <v>0.1864189823353725</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.353722320541402</v>
-      </c>
-      <c r="N5">
-        <v>0.353722320541402</v>
-      </c>
-      <c r="O5">
-        <v>0.07172794330711593</v>
-      </c>
-      <c r="P5">
-        <v>0.07172794330711593</v>
-      </c>
-      <c r="Q5">
-        <v>0.32126393301699</v>
-      </c>
-      <c r="R5">
-        <v>0.32126393301699</v>
-      </c>
-      <c r="S5">
-        <v>0.01337145019632184</v>
-      </c>
-      <c r="T5">
-        <v>0.01337145019632184</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9592346666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.877704</v>
+      </c>
+      <c r="I12">
+        <v>0.1779646688335485</v>
+      </c>
+      <c r="J12">
+        <v>0.1779646688335486</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N12">
+        <v>2.037896</v>
+      </c>
+      <c r="O12">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="P12">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="Q12">
+        <v>0.6516068300871111</v>
+      </c>
+      <c r="R12">
+        <v>5.864461470784</v>
+      </c>
+      <c r="S12">
+        <v>0.01903024932903697</v>
+      </c>
+      <c r="T12">
+        <v>0.01903024932903698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9592346666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.877704</v>
+      </c>
+      <c r="I13">
+        <v>0.1779646688335485</v>
+      </c>
+      <c r="J13">
+        <v>0.1779646688335486</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.289588</v>
+      </c>
+      <c r="O13">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P13">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q13">
+        <v>0.4123391717724445</v>
+      </c>
+      <c r="R13">
+        <v>3.711052545952001</v>
+      </c>
+      <c r="S13">
+        <v>0.01204241098256935</v>
+      </c>
+      <c r="T13">
+        <v>0.01204241098256935</v>
       </c>
     </row>
   </sheetData>
